--- a/Naive_Bayes_classifiers/Words.xlsx
+++ b/Naive_Bayes_classifiers/Words.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dima\NURE\2Сourse\1_semester\ТЙМС\RGZ\Naive_Bayes_classifiers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dima\NURE\2Сourse\1_semester\ТЙМС\RGZ\SpamFilter\Naive_Bayes_classifiers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F317E0D0-FE3E-479F-953A-07CA526348DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A49B9D-80DB-4C85-B1AD-6F158565CBF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4FDC0CB6-2ACF-498C-9E59-A3D0B959AB85}"/>
   </bookViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7A37A6-C033-4501-9A2B-832AE1F4A90D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,7 +627,7 @@
         <v>59</v>
       </c>
       <c r="E2">
-        <f>LEN(TRIM(B2)) -LEN(SUBSTITUTE(B2, " ", ""))+1</f>
+        <f t="shared" ref="E2:E21" si="0">LEN(TRIM(B2)) -LEN(SUBSTITUTE(B2, " ", ""))+1</f>
         <v>26</v>
       </c>
     </row>
@@ -642,7 +642,7 @@
         <v>30</v>
       </c>
       <c r="E3">
-        <f>LEN(TRIM(B3)) -LEN(SUBSTITUTE(B3, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>32</v>
       </c>
       <c r="E4">
-        <f>LEN(TRIM(B4)) -LEN(SUBSTITUTE(B4, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -672,7 +672,7 @@
         <v>33</v>
       </c>
       <c r="E5">
-        <f>LEN(TRIM(B5)) -LEN(SUBSTITUTE(B5, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -687,7 +687,7 @@
         <v>36</v>
       </c>
       <c r="E6">
-        <f>LEN(TRIM(B6)) -LEN(SUBSTITUTE(B6, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -702,7 +702,7 @@
         <v>37</v>
       </c>
       <c r="E7">
-        <f>LEN(TRIM(B7)) -LEN(SUBSTITUTE(B7, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
@@ -717,7 +717,7 @@
         <v>38</v>
       </c>
       <c r="E8">
-        <f>LEN(TRIM(B8)) -LEN(SUBSTITUTE(B8, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
@@ -732,7 +732,7 @@
         <v>41</v>
       </c>
       <c r="E9">
-        <f>LEN(TRIM(B9)) -LEN(SUBSTITUTE(B9, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -747,7 +747,7 @@
         <v>43</v>
       </c>
       <c r="E10">
-        <f>LEN(TRIM(B10)) -LEN(SUBSTITUTE(B10, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>13</v>
       </c>
       <c r="E11">
-        <f>LEN(TRIM(B11)) -LEN(SUBSTITUTE(B11, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -777,7 +777,7 @@
         <v>45</v>
       </c>
       <c r="E12">
-        <f>LEN(TRIM(B12)) -LEN(SUBSTITUTE(B12, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -792,7 +792,7 @@
         <v>56</v>
       </c>
       <c r="E13">
-        <f>LEN(TRIM(B13)) -LEN(SUBSTITUTE(B13, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
         <v>47</v>
       </c>
       <c r="E14">
-        <f>LEN(TRIM(B14)) -LEN(SUBSTITUTE(B14, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
@@ -822,7 +822,7 @@
         <v>49</v>
       </c>
       <c r="E15">
-        <f>LEN(TRIM(B15)) -LEN(SUBSTITUTE(B15, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
         <v>50</v>
       </c>
       <c r="E16">
-        <f>LEN(TRIM(B16)) -LEN(SUBSTITUTE(B16, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <f>LEN(TRIM(B17)) -LEN(SUBSTITUTE(B17, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -867,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <f>LEN(TRIM(B18)) -LEN(SUBSTITUTE(B18, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -882,7 +882,7 @@
         <v>26</v>
       </c>
       <c r="E19">
-        <f>LEN(TRIM(B19)) -LEN(SUBSTITUTE(B19, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
@@ -897,7 +897,7 @@
         <v>53</v>
       </c>
       <c r="E20">
-        <f>LEN(TRIM(B20)) -LEN(SUBSTITUTE(B20, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
@@ -912,7 +912,7 @@
         <v>54</v>
       </c>
       <c r="E21">
-        <f>LEN(TRIM(B21)) -LEN(SUBSTITUTE(B21, " ", ""))+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
